--- a/SZMK/SZMK/bin/Debug/Templates/ReportPastTimeofDateTemplate.xlsx
+++ b/SZMK/SZMK/bin/Debug/Templates/ReportPastTimeofDateTemplate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D2CFAA-8201-4989-AEA0-2BC8154D6FF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DE49B-6D83-453C-850E-84B60E069898}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,12 +103,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,9 +410,11 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -423,8 +431,10 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -433,8 +443,10 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -443,8 +455,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -453,8 +467,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -463,8 +479,10 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -473,8 +491,10 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -483,6 +503,8 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
